--- a/Qualis-Bot-SalesNavigator/bin/Debug/InputKeyword.xlsx
+++ b/Qualis-Bot-SalesNavigator/bin/Debug/InputKeyword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Cruz Diana\Documents\GitHub\SalesBot\Qualis-Bot-SalesNavigator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276971AD-CFA4-4C89-98FF-D8FA3947824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B82AE5-6FCD-4723-928F-BF6B1C17B07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
-  <si>
-    <t>CIO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Keyword</t>
   </si>
@@ -54,9 +51,6 @@
     <t>Gerente general</t>
   </si>
   <si>
-    <t>CISO</t>
-  </si>
-  <si>
     <t>Jefe de Division QA</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>CEO &amp; Co-founder</t>
   </si>
   <si>
-    <t>Director of Engeniering</t>
-  </si>
-  <si>
     <t>Chief Project Officer</t>
   </si>
   <si>
@@ -111,27 +102,15 @@
     <t>COO</t>
   </si>
   <si>
-    <t>Founder</t>
-  </si>
-  <si>
-    <t>Cofundador &amp; CEO</t>
-  </si>
-  <si>
     <t>Gerente de operaciones</t>
   </si>
   <si>
     <t>Jefe de implementación</t>
   </si>
   <si>
-    <t>CEO &amp; Cofounder</t>
-  </si>
-  <si>
     <t>IT regional manager</t>
   </si>
   <si>
-    <t>IT operations &amp; Quality management</t>
-  </si>
-  <si>
     <t>Directora de Producto</t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>Technical Leader</t>
   </si>
   <si>
-    <t>Teach Lead</t>
-  </si>
-  <si>
     <t>Quality Manager</t>
   </si>
   <si>
@@ -156,9 +132,6 @@
     <t>Technical Team Leader</t>
   </si>
   <si>
-    <t>Lead Technical Architect</t>
-  </si>
-  <si>
     <t>Gerente de Tecnología y Sistemas</t>
   </si>
   <si>
@@ -177,15 +150,6 @@
     <t>IT Software manager</t>
   </si>
   <si>
-    <t>Quality - Training &amp; Processes</t>
-  </si>
-  <si>
-    <t>Founder &amp; CEO</t>
-  </si>
-  <si>
-    <t>Head of CX</t>
-  </si>
-  <si>
     <t>QA Team Lead</t>
   </si>
   <si>
@@ -195,12 +159,6 @@
     <t>CIO | CTO</t>
   </si>
   <si>
-    <t>IT Development Manager</t>
-  </si>
-  <si>
-    <t>Head of IT Product Development</t>
-  </si>
-  <si>
     <t>Gerente de IT</t>
   </si>
   <si>
@@ -240,18 +198,12 @@
     <t>Director de operación y servicio</t>
   </si>
   <si>
-    <t>Quality Assurance Automation Engineer</t>
-  </si>
-  <si>
     <t>Gerente de Quality Control</t>
   </si>
   <si>
     <t>Director General</t>
   </si>
   <si>
-    <t>CPO</t>
-  </si>
-  <si>
     <t>Director de TI</t>
   </si>
   <si>
@@ -261,9 +213,6 @@
     <t>Directora de Operaciones</t>
   </si>
   <si>
-    <t>Product Manager</t>
-  </si>
-  <si>
     <t>Co-Founder &amp; CPO</t>
   </si>
   <si>
@@ -279,18 +228,12 @@
     <t>IT Operations Manager</t>
   </si>
   <si>
-    <t>DevOps Engineer</t>
-  </si>
-  <si>
     <t>CEO Latam</t>
   </si>
   <si>
     <t>Head of Technology &amp; Processing</t>
   </si>
   <si>
-    <t>Head of IT</t>
-  </si>
-  <si>
     <t>Head Of Quality Assurance</t>
   </si>
   <si>
@@ -312,33 +255,18 @@
     <t>Responsable del Sistema de Gestión de Calidad</t>
   </si>
   <si>
-    <t>Gerencia de Organización y Calidad</t>
-  </si>
-  <si>
-    <t>Senior Software Quality Assurance</t>
-  </si>
-  <si>
     <t>Líder de Práctica de QA/QC</t>
   </si>
   <si>
     <t>Chief People Officer</t>
   </si>
   <si>
-    <t>Senior Software Delivery Manager</t>
-  </si>
-  <si>
     <t>Chief Product Office</t>
   </si>
   <si>
-    <t>Quality Control Analyst and Tester</t>
-  </si>
-  <si>
     <t>Team leader QA &amp; Training</t>
   </si>
   <si>
-    <t>Quality Assurance Manager</t>
-  </si>
-  <si>
     <t>Directora de proyectos TI</t>
   </si>
   <si>
@@ -351,13 +279,25 @@
     <t>IT Project Leader</t>
   </si>
   <si>
-    <t>Techinal Leader</t>
-  </si>
-  <si>
-    <t>Application Security Manager</t>
-  </si>
-  <si>
     <t>Gerente de Gestión de Proyectos Tecnológicos</t>
+  </si>
+  <si>
+    <t>Head of CX (Customer Experience)</t>
+  </si>
+  <si>
+    <t>Director de Engeniering</t>
+  </si>
+  <si>
+    <t>Director de proyectos TI</t>
+  </si>
+  <si>
+    <t>Director of IT Product Development</t>
+  </si>
+  <si>
+    <t>CISO (Chief Information Security Officer)</t>
+  </si>
+  <si>
+    <t>Gerente de Organización y Calidad</t>
   </si>
 </sst>
 </file>
@@ -904,9 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A3C996-ED29-984C-84A9-29C524EFAB6B}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -915,399 +853,399 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,12 +1255,12 @@
     </row>
     <row r="81" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1332,153 +1270,111 @@
     </row>
     <row r="84" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A93" s="5"/>
     </row>
     <row r="94" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A95" s="5"/>
     </row>
     <row r="96" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="A97" s="5"/>
     </row>
     <row r="98" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="A98" s="5"/>
     </row>
     <row r="99" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="A99" s="5"/>
     </row>
     <row r="100" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A100" s="5"/>
     </row>
     <row r="101" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="A101" s="5"/>
     </row>
     <row r="102" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A102" s="5"/>
     </row>
     <row r="103" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="A103" s="5"/>
     </row>
     <row r="104" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="A104" s="5"/>
     </row>
     <row r="105" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="A105" s="5"/>
     </row>
     <row r="106" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="A106" s="5"/>
     </row>
     <row r="107" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="A107" s="5"/>
     </row>
     <row r="108" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="A108" s="5"/>
     </row>
     <row r="109" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="A109" s="5"/>
     </row>
     <row r="110" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A110" s="5"/>
     </row>
     <row r="111" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="A111" s="5"/>
     </row>
     <row r="112" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="A112" s="5"/>
     </row>
     <row r="113" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="A113" s="5"/>
     </row>
     <row r="114" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
